--- a/VSM/docs/VSM_Calculations_Learning_to_See.xlsx
+++ b/VSM/docs/VSM_Calculations_Learning_to_See.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thecontinuousimprovementaca-my.sharepoint.com/personal/learn_continuousimprovement_education/Documents/Ahmed/TCIA/Courses - Complete/VSM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Calculations\VSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D87297-CFF1-4A59-85EC-CF4E7FBA0BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C09DC-F486-4522-A4EF-F1E9BD3F7F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="46320" windowHeight="25440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Takt Time" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="491">
   <si>
     <t>TAKT TIME CALCULATION</t>
   </si>
@@ -1521,6 +1521,21 @@
   </si>
   <si>
     <t>VA = 315 sec (includes machining path)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KAIZEN ACADEMY™
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www.kaizenacademy.education</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1531,7 +1546,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,6 +1646,26 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="55"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1691,9 +1726,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1765,6 +1799,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2032,13 +2073,13 @@
   <sheetPr>
     <tabColor rgb="FF1F4E79"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -2046,431 +2087,441 @@
     <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>27000</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>455</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8">
-        <f>C7/C8</f>
+      <c r="C10" s="7">
+        <f>C8/C9</f>
         <v>59.340659340659343</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="6">
         <v>28800</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="6">
         <v>1200</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9">
-        <f>C12-C13</f>
+      <c r="C15" s="8">
+        <f>C13-C14</f>
         <v>27600</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="6">
         <v>18400</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="6">
         <v>20</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9">
-        <f>C15/C16</f>
+      <c r="C18" s="8">
+        <f>C16/C17</f>
         <v>920</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="9">
-        <f>C17/C18</f>
+      <c r="C20" s="8">
+        <f>C18/C19</f>
         <v>460</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="8">
-        <f>C14/C19</f>
+      <c r="C21" s="7">
+        <f>C15/C20</f>
         <v>60</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="6">
         <v>28800</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C25" s="6">
         <v>1800</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="9">
-        <f>C23-C24</f>
+      <c r="C26" s="8">
+        <f>C24-C25</f>
         <v>27000</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="6">
         <v>24000</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="6">
         <v>20</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="9">
-        <f>C26/C27</f>
+      <c r="C29" s="8">
+        <f>C27/C28</f>
         <v>1200</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="9">
-        <f>C28/C29</f>
+      <c r="C31" s="8">
+        <f>C29/C30</f>
         <v>600</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="8">
-        <f>C25/C30</f>
+      <c r="C32" s="7">
+        <f>C26/C31</f>
         <v>45</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B22:E22"/>
+  <mergeCells count="4">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2482,13 +2533,13 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -2498,637 +2549,649 @@
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="34">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="33">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="34">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="33">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31">
         <v>5</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="34">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="33">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31">
         <v>7</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="34">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="33">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31">
         <v>9</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="34">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="33">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32">
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31">
         <v>11</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="34">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="33">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31">
         <v>13</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F17" s="30" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="34">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="33">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31">
         <v>15</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="34">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="33">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31">
         <v>17</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F21" s="30" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="34">
+    <row r="22" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="33">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31">
         <v>19</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F23" s="30" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="34">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="33">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31">
         <v>21</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F25" s="30" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="34">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="33">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31">
         <v>23</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F27" s="30" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="34">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="33">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36">
         <v>25</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E29" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F29" s="37" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="39">
         <v>26</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D30" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36">
         <v>27</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>453</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F31" s="37" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="39">
         <v>28</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36">
         <v>29</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E33" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F33" s="37" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="40">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="39">
         <v>30</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36">
         <v>31</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E35" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F35" s="37" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="39">
         <v>32</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D36" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36">
         <v>33</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D37" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E37" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F37" s="37" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="40">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="39">
         <v>34</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D38" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>481</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3139,13 +3202,13 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:K11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -3156,491 +3219,501 @@
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="5">
         <v>27600</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>39</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="5">
         <v>27600</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>46</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="5">
         <v>27600</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>62</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="5">
         <v>27600</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="5">
         <v>27600</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="6">
         <v>28800</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="6">
         <v>1200</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="10">
-        <f>C13-C14</f>
+      <c r="C16" s="9">
+        <f>C14-C15</f>
         <v>27600</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="5">
         <v>27600</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="11">
         <v>0.85</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="13">
-        <f>(C20/D20)*E20</f>
+      <c r="F21" s="5"/>
+      <c r="G21" s="12">
+        <f>(C21/D21)*E21</f>
         <v>23460</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="5">
         <v>27600</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="5">
         <v>39</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="13">
-        <f>(C21/D21)*E21</f>
+      <c r="F22" s="5"/>
+      <c r="G22" s="12">
+        <f>(C22/D22)*E22</f>
         <v>707.69230769230774</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="5">
         <v>27600</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="5">
         <v>46</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="11">
         <v>0.8</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="13">
-        <f>(C22/D22)*E22</f>
+      <c r="F23" s="5"/>
+      <c r="G23" s="12">
+        <f>(C23/D23)*E23</f>
         <v>480</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="5">
         <v>27600</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="5">
         <v>62</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="13">
-        <f>(C23/D23)*E23</f>
+      <c r="F24" s="5"/>
+      <c r="G24" s="12">
+        <f>(C24/D24)*E24</f>
         <v>445.16129032258067</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="5">
         <v>27600</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="5">
         <v>40</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="13">
-        <f>(C24/D24)*E24</f>
+      <c r="F25" s="5"/>
+      <c r="G25" s="12">
+        <f>(C25/D25)*E25</f>
         <v>690</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B17:K17"/>
+  <mergeCells count="3">
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3652,13 +3725,13 @@
   <sheetPr>
     <tabColor rgb="FFED7D31"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -3668,436 +3741,446 @@
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="5">
         <v>920</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>4600</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="6">
         <v>2400</v>
       </c>
-      <c r="E7" s="9">
-        <f>C7+D7</f>
+      <c r="E8" s="8">
+        <f>C8+D8</f>
         <v>7000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="5">
         <v>920</v>
       </c>
-      <c r="G7" s="8">
-        <f>E7/F7</f>
+      <c r="G8" s="7">
+        <f>E8/F8</f>
         <v>7.6086956521739131</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>1100</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="6">
         <v>600</v>
       </c>
-      <c r="E8" s="9">
-        <f>C8+D8</f>
+      <c r="E9" s="8">
+        <f>C9+D9</f>
         <v>1700</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="5">
         <v>920</v>
       </c>
-      <c r="G8" s="8">
-        <f>E8/F8</f>
+      <c r="G9" s="7">
+        <f>E9/F9</f>
         <v>1.8478260869565217</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>1600</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="6">
         <v>850</v>
       </c>
-      <c r="E9" s="9">
-        <f>C9+D9</f>
+      <c r="E10" s="8">
+        <f>C10+D10</f>
         <v>2450</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="5">
         <v>920</v>
       </c>
-      <c r="G9" s="8">
-        <f>E9/F9</f>
+      <c r="G10" s="7">
+        <f>E10/F10</f>
         <v>2.6630434782608696</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="6">
         <v>1200</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="6">
         <v>640</v>
       </c>
-      <c r="E10" s="9">
-        <f>C10+D10</f>
+      <c r="E11" s="8">
+        <f>C11+D11</f>
         <v>1840</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="5">
         <v>920</v>
       </c>
-      <c r="G10" s="8">
-        <f>E10/F10</f>
+      <c r="G11" s="7">
+        <f>E11/F11</f>
         <v>2</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="6">
         <v>2700</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="6">
         <v>1440</v>
       </c>
-      <c r="E11" s="9">
-        <f>C11+D11</f>
+      <c r="E12" s="8">
+        <f>C12+D12</f>
         <v>4140</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="5">
         <v>920</v>
       </c>
-      <c r="G11" s="8">
-        <f>E11/F11</f>
+      <c r="G12" s="7">
+        <f>E12/F12</f>
         <v>4.5</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
         <v>5</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6">
         <v>7.6</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>39</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6">
         <v>1.8</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>46</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6">
         <v>2.7</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>62</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6">
         <v>2</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
         <v>40</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6">
         <v>4.5</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="16">
-        <f>SUM(E15:E25)</f>
+      <c r="E28" s="15">
+        <f>SUM(E16:E26)</f>
         <v>23.6</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="19">
-        <f>SUM(G15:G25)</f>
+      <c r="G29" s="18">
+        <f>SUM(G16:G26)</f>
         <v>188</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H29" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:H13"/>
+  <mergeCells count="2">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4109,269 +4192,279 @@
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
     <col min="3" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>39</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>46</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>62</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>40</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="19">
-        <f>SUM(C6:C9)</f>
+      <c r="C12" s="18">
+        <f>SUM(C7:C10)</f>
         <v>187</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="21">
         <v>60</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="23">
-        <f>C11/C12</f>
+      <c r="C14" s="22">
+        <f>C12/C13</f>
         <v>3.1166666666666667</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="19">
-        <f>ROUNDUP(C13,0)</f>
+      <c r="C15" s="18">
+        <f>ROUNDUP(C14,0)</f>
         <v>4</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C19" s="21">
         <v>56</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="19">
-        <f>3*C18</f>
+      <c r="C20" s="18">
+        <f>3*C19</f>
         <v>168</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="19">
-        <f>C11-C19</f>
+      <c r="C21" s="18">
+        <f>C12-C20</f>
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C24" s="21">
         <v>195</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C25" s="21">
         <v>45</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="42">
-        <f>C23/C24</f>
+      <c r="C26" s="41">
+        <f>C24/C25</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="25">
-        <f>ROUNDUP(C25,0)</f>
+      <c r="C27" s="24">
+        <f>ROUNDUP(C26,0)</f>
         <v>5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B22:F22"/>
+  <mergeCells count="4">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4383,13 +4476,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="B1:F24"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -4397,216 +4490,226 @@
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C6" s="21">
         <v>30</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C7" s="21">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="19">
-        <f>C5*C6</f>
+      <c r="C8" s="18">
+        <f>C6*C7</f>
         <v>600</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="25">
-        <f>C7/60</f>
+      <c r="C9" s="24">
+        <f>C8/60</f>
         <v>10</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C12" s="21">
         <v>60</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="21">
         <v>20</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="19">
-        <f>C11*C12</f>
+      <c r="C14" s="18">
+        <f>C12*C13</f>
         <v>1200</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="25">
-        <f>C13/60</f>
+      <c r="C15" s="24">
+        <f>C14/60</f>
         <v>20</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C18" s="21">
         <v>460</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C19" s="21">
         <v>20</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="19">
-        <f>C17/C18</f>
+      <c r="C20" s="18">
+        <f>C18/C19</f>
         <v>23</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C23" s="21">
         <v>27600</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C24" s="21">
         <v>1200</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="19">
-        <f>C22/C23</f>
+      <c r="C25" s="18">
+        <f>C23/C24</f>
         <v>23</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F25" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B21:F21"/>
+  <mergeCells count="5">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4618,13 +4721,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:F30"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -4632,246 +4735,256 @@
     <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C10" s="21">
         <v>16</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C11" s="21">
         <v>14.5</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="16">
-        <f>C9-C10</f>
+      <c r="C12" s="15">
+        <f>C10-C11</f>
         <v>1.5</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="21">
         <v>0.25</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="19">
-        <f>C11/C12</f>
+      <c r="C14" s="18">
+        <f>C12/C13</f>
         <v>6</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C20" s="21">
         <v>600</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C21" s="21">
         <v>320</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="19">
-        <f>C19</f>
+      <c r="C22" s="18">
+        <f>C20</f>
         <v>600</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="19">
-        <f>C20</f>
+      <c r="C23" s="18">
+        <f>C21</f>
         <v>320</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="19">
-        <f>C19/2</f>
+      <c r="C26" s="18">
+        <f>C20/2</f>
         <v>300</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="19">
-        <f>C20/2</f>
+      <c r="C27" s="18">
+        <f>C21/2</f>
         <v>160</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="24" t="s">
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C30" s="21">
         <v>1.5</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C31" s="21">
         <v>1</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B16:F16"/>
+  <mergeCells count="3">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4883,13 +4996,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -4897,318 +5010,328 @@
     <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="6">
         <v>600</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>320</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
         <v>60</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="6">
         <v>1.5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="10">
-        <f>C5*C10</f>
+      <c r="C12" s="9">
+        <f>C6*C11</f>
         <v>900</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="10">
-        <f>C6*C10</f>
+      <c r="C13" s="9">
+        <f>C7*C11</f>
         <v>480</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C17" s="21">
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C18" s="21">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C22" s="21">
         <v>60</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C23" s="21">
         <v>3600</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="19">
-        <f>C22/C21</f>
+      <c r="C24" s="18">
+        <f>C23/C22</f>
         <v>60</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C27" s="21">
         <v>4.5</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C28" s="21">
         <v>2</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C31" s="21">
         <v>5</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C32" s="21">
         <v>1.5</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C32" s="26">
-        <f>1-(C31/C30)</f>
+      <c r="C33" s="25">
+        <f>1-(C32/C31)</f>
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B29:F29"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5220,13 +5343,13 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -5234,273 +5357,283 @@
     <col min="7" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="6">
         <v>7.6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="6">
         <v>6.5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="6">
         <v>4.5</v>
       </c>
-      <c r="G5" s="8">
-        <f>SUM(C5:F5)</f>
+      <c r="G6" s="7">
+        <f>SUM(C6:F6)</f>
         <v>23.6</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H6" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="6">
         <v>1.5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="6">
         <v>4.5</v>
       </c>
-      <c r="G6" s="8">
-        <f>SUM(C6:F6)</f>
+      <c r="G7" s="7">
+        <f>SUM(C7:F7)</f>
         <v>8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>1.5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="8">
-        <f>SUM(C7:F7)</f>
+      <c r="G8" s="7">
+        <f>SUM(C8:F8)</f>
         <v>4.5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C12" s="21">
         <v>240</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="28">
-        <f>G5</f>
+      <c r="C15" s="27">
+        <f>G6</f>
         <v>23.6</v>
       </c>
-      <c r="D14" s="25">
-        <f>C$11/C14</f>
+      <c r="D15" s="24">
+        <f>C$12/C15</f>
         <v>10.169491525423728</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="28">
-        <f>G6</f>
+      <c r="C16" s="27">
+        <f>G7</f>
         <v>8</v>
       </c>
-      <c r="D15" s="25">
-        <f>C$11/C15</f>
+      <c r="D16" s="24">
+        <f>C$12/C16</f>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="28">
-        <f>G7</f>
+      <c r="C17" s="27">
+        <f>G8</f>
         <v>4.5</v>
       </c>
-      <c r="D16" s="25">
-        <f>C$11/C16</f>
+      <c r="D17" s="24">
+        <f>C$12/C17</f>
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="6">
         <v>188</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="6">
         <v>23.6</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="29">
-        <f>C20/(D20*86400)</f>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="28">
+        <f>C21/(D21*86400)</f>
         <v>9.2200251098556178E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="6">
         <v>169</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="6">
         <v>4.5</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="29">
-        <f>C21/(D21*86400)</f>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="28">
+        <f>C22/(D22*86400)</f>
         <v>4.3467078189300413E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>304</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B18:H18"/>
+  <mergeCells count="3">
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5512,13 +5645,13 @@
   <sheetPr>
     <tabColor rgb="FF548235"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -5526,458 +5659,468 @@
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="6">
         <v>20</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>15</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
         <v>30</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
         <v>30</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
         <v>30</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="6">
         <v>6</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
         <v>195</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="6">
         <v>20</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <v>30</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C23" s="18">
         <v>43</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C24" s="18">
         <v>315</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="6">
         <v>45</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="6">
         <v>39</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="6">
         <v>27000</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="9">
-        <f>C28*600</f>
+      <c r="C30" s="8">
+        <f>C29*600</f>
         <v>16200000</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C30" s="9">
-        <f>C28-C29</f>
+      <c r="C31" s="8">
+        <f>C29-C30</f>
         <v>-16173000</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="6">
         <v>300</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C32" s="30">
-        <f>C30/C31</f>
+      <c r="C33" s="29">
+        <f>C31/C32</f>
         <v>-53910</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C34" s="6">
         <v>5</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C36" s="6">
         <v>315</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
         <v>355</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B25:F25"/>
+  <mergeCells count="3">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
